--- a/DC.xlsx
+++ b/DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="El Shaddai 202" sheetId="9" r:id="rId10"/>
     <sheet name="Nerul 203" sheetId="11" r:id="rId11"/>
     <sheet name="Putz 204" sheetId="12" r:id="rId12"/>
+    <sheet name="El Shaddai 301" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -236,12 +237,42 @@
   <si>
     <t>2) Substituete for 728488</t>
   </si>
+  <si>
+    <t>ITEM DESCRIPTION</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Fuji 10 Kva UPS</t>
+  </si>
+  <si>
+    <t>26 AH Battery</t>
+  </si>
+  <si>
+    <t>Rack</t>
+  </si>
+  <si>
+    <t>DC  no:23-24QEl Shaddai 301</t>
+  </si>
+  <si>
+    <t>client:  El Shaddai</t>
+  </si>
+  <si>
+    <t>Billing Address:  El Shaddai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref: Delivery of Material                                                                  </t>
+  </si>
+  <si>
+    <t>date: 26/12/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +303,17 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial  "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -393,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -458,6 +500,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1166,6 +1214,132 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.799999999999997" customHeight="1">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.799999999999997" customHeight="1">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1954,7 +2128,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/DC.xlsx
+++ b/DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Nerul 203" sheetId="11" r:id="rId11"/>
     <sheet name="Putz 204" sheetId="12" r:id="rId12"/>
     <sheet name="El Shaddai 301" sheetId="13" r:id="rId13"/>
+    <sheet name="Pinge 401" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="87">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -266,6 +267,45 @@
   </si>
   <si>
     <t>date: 26/12/2023</t>
+  </si>
+  <si>
+    <t>DC  no:23-24QPinge 401</t>
+  </si>
+  <si>
+    <t>client:  Pinge</t>
+  </si>
+  <si>
+    <t>Billing Address:  Bainguinim Goa</t>
+  </si>
+  <si>
+    <t>Shipping Address: Bainguinim Goa</t>
+  </si>
+  <si>
+    <t>date: 01/01/2024</t>
+  </si>
+  <si>
+    <t>Dahua 2MP Bullet IP Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahua 16 ch NVR </t>
+  </si>
+  <si>
+    <t>Enclosure with mouting</t>
+  </si>
+  <si>
+    <t>2 TB HDD</t>
+  </si>
+  <si>
+    <t>RJ 45 Connector</t>
+  </si>
+  <si>
+    <t>1 Box</t>
+  </si>
+  <si>
+    <t>CP Plus 4 + 2 Port POE Giga Switch</t>
+  </si>
+  <si>
+    <t>CP Plus 8 + 2 Port POE Giga Switch</t>
   </si>
 </sst>
 </file>
@@ -435,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -474,6 +514,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -501,10 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -803,33 +846,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -843,11 +886,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -911,33 +954,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -951,11 +994,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1018,33 +1061,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1058,11 +1101,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1138,33 +1181,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7" t="s">
         <v>63</v>
@@ -1180,11 +1223,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1232,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1246,33 +1289,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7"/>
     </row>
@@ -1286,11 +1329,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1298,10 +1341,10 @@
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1309,10 +1352,10 @@
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1320,10 +1363,10 @@
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1331,15 +1374,185 @@
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="22.8" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="29" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="29" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="29" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="29" customFormat="1">
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="29" customFormat="1">
+      <c r="A12" s="12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="29" customFormat="1">
+      <c r="A13" s="12">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="29" customFormat="1">
+      <c r="A14" s="12">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1372,33 +1585,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.4" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1412,11 +1625,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1488,33 +1701,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.8" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1528,11 +1741,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1597,33 +1810,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="52.8" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1637,11 +1850,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="62.4" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1706,33 +1919,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1746,11 +1959,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1816,33 +2029,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="52.8" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1856,11 +2069,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1924,33 +2137,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1964,11 +2177,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2032,33 +2245,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -2072,11 +2285,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2139,33 +2352,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -2179,11 +2392,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>

--- a/DC.xlsx
+++ b/DC.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
   <si>
     <t>client: PUTZMEISTER CONCRETE MACHINES PVT LTD</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>1 Box</t>
-  </si>
-  <si>
-    <t>CP Plus 4 + 2 Port POE Giga Switch</t>
   </si>
   <si>
     <t>CP Plus 8 + 2 Port POE Giga Switch</t>
@@ -520,6 +517,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -546,9 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,33 +843,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -886,11 +883,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -954,33 +951,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -994,11 +991,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1061,33 +1058,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1101,11 +1098,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1181,33 +1178,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7" t="s">
         <v>63</v>
@@ -1223,11 +1220,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1289,33 +1286,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7"/>
     </row>
@@ -1329,11 +1326,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1399,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1415,33 +1412,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7"/>
     </row>
@@ -1455,15 +1452,15 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="22.8" customHeight="1">
+    <row r="7" spans="1:5" s="20" customFormat="1" ht="22.8" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="29" customFormat="1" ht="33.6" customHeight="1">
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="33.6" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1482,10 +1479,10 @@
         <v>79</v>
       </c>
       <c r="C8" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="29" customFormat="1" ht="16.2" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="16.2" customHeight="1">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -1496,63 +1493,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" ht="25.2" customHeight="1">
+    <row r="10" spans="1:5" s="20" customFormat="1">
       <c r="A10" s="12">
         <v>3</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="29" customFormat="1">
+    <row r="11" spans="1:5" s="20" customFormat="1">
       <c r="A11" s="12">
         <v>4</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>86</v>
+      <c r="B11" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="29" customFormat="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="20" customFormat="1">
       <c r="A12" s="12">
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="29" customFormat="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="20" customFormat="1">
       <c r="A13" s="12">
         <v>6</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="29" customFormat="1">
-      <c r="A14" s="12">
-        <v>7</v>
-      </c>
-      <c r="B14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" t="s">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1585,33 +1571,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.4" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1625,11 +1611,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1701,33 +1687,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.8" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1741,11 +1727,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1810,33 +1796,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="52.8" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1850,11 +1836,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="62.4" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1919,33 +1905,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -1959,11 +1945,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2029,33 +2015,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="52.8" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -2069,11 +2055,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2137,33 +2123,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -2177,11 +2163,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2245,33 +2231,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -2285,11 +2271,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2352,33 +2338,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
@@ -2392,11 +2378,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
